--- a/TARJETA DE LIQUIDACION chacabamba/TARJETA-2019.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETA-2019.xlsx
@@ -16,7 +16,7 @@
     <sheet name="SEPERVISION-END" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2.6.7.1.6.(1.2.3)'!$E$13:$K$317</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2.6.7.1.6.(1.2.3)'!$B$13:$K$317</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.6.7.1.6.1END'!$E$13:$I$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2019-END.'!$E$13:$L$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'SEPERVISION-END'!$E$12:$K$46</definedName>
@@ -2199,14 +2199,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -2214,11 +2217,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -17575,15 +17575,15 @@
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
       <c r="K8" s="132"/>
     </row>
     <row r="9" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17594,22 +17594,22 @@
       <c r="C9" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="168" t="s">
         <v>377</v>
       </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
       <c r="K9" s="132"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="168"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="131" t="s">
         <v>10</v>
       </c>
@@ -17650,10 +17650,10 @@
       <c r="E12" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="170" t="s">
+      <c r="F12" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="172" t="s">
+      <c r="G12" s="169" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="164"/>
@@ -17673,9 +17673,9 @@
       <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="170"/>
       <c r="H13" s="28" t="s">
         <v>24</v>
       </c>
@@ -18181,15 +18181,15 @@
       <c r="C31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="167" t="s">
+      <c r="D31" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
       <c r="K31" s="132"/>
     </row>
     <row r="32" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18200,22 +18200,22 @@
       <c r="C32" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="167" t="s">
+      <c r="D32" s="168" t="s">
         <v>377</v>
       </c>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="168"/>
       <c r="K32" s="132"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="168" t="s">
+      <c r="A33" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="168"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="131" t="s">
         <v>10</v>
       </c>
@@ -18256,10 +18256,10 @@
       <c r="E35" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="170" t="s">
+      <c r="F35" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="172" t="s">
+      <c r="G35" s="169" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="164"/>
@@ -18279,9 +18279,9 @@
       <c r="D36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="169"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="170"/>
       <c r="H36" s="28" t="s">
         <v>24</v>
       </c>
@@ -18869,15 +18869,15 @@
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="167" t="s">
+      <c r="D56" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="E56" s="167"/>
-      <c r="F56" s="167"/>
-      <c r="G56" s="167"/>
-      <c r="H56" s="167"/>
-      <c r="I56" s="167"/>
-      <c r="J56" s="167"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="168"/>
+      <c r="G56" s="168"/>
+      <c r="H56" s="168"/>
+      <c r="I56" s="168"/>
+      <c r="J56" s="168"/>
       <c r="K56" s="132"/>
     </row>
     <row r="57" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18888,22 +18888,22 @@
       <c r="C57" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="167" t="s">
+      <c r="D57" s="168" t="s">
         <v>377</v>
       </c>
-      <c r="E57" s="167"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="167"/>
-      <c r="H57" s="167"/>
-      <c r="I57" s="167"/>
-      <c r="J57" s="167"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="168"/>
+      <c r="G57" s="168"/>
+      <c r="H57" s="168"/>
+      <c r="I57" s="168"/>
+      <c r="J57" s="168"/>
       <c r="K57" s="132"/>
     </row>
     <row r="58" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="168" t="s">
+      <c r="A58" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="168"/>
+      <c r="B58" s="167"/>
       <c r="C58" s="131" t="s">
         <v>10</v>
       </c>
@@ -18944,10 +18944,10 @@
       <c r="E60" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="170" t="s">
+      <c r="F60" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="172" t="s">
+      <c r="G60" s="169" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="164"/>
@@ -18967,9 +18967,9 @@
       <c r="D61" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="169"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="173"/>
+      <c r="E61" s="173"/>
+      <c r="F61" s="172"/>
+      <c r="G61" s="170"/>
       <c r="H61" s="28" t="s">
         <v>24</v>
       </c>
@@ -19505,15 +19505,15 @@
       <c r="C80" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="167" t="s">
+      <c r="D80" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="E80" s="167"/>
-      <c r="F80" s="167"/>
-      <c r="G80" s="167"/>
-      <c r="H80" s="167"/>
-      <c r="I80" s="167"/>
-      <c r="J80" s="167"/>
+      <c r="E80" s="168"/>
+      <c r="F80" s="168"/>
+      <c r="G80" s="168"/>
+      <c r="H80" s="168"/>
+      <c r="I80" s="168"/>
+      <c r="J80" s="168"/>
       <c r="K80" s="132"/>
     </row>
     <row r="81" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19524,22 +19524,22 @@
       <c r="C81" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="167" t="s">
+      <c r="D81" s="168" t="s">
         <v>377</v>
       </c>
-      <c r="E81" s="167"/>
-      <c r="F81" s="167"/>
-      <c r="G81" s="167"/>
-      <c r="H81" s="167"/>
-      <c r="I81" s="167"/>
-      <c r="J81" s="167"/>
+      <c r="E81" s="168"/>
+      <c r="F81" s="168"/>
+      <c r="G81" s="168"/>
+      <c r="H81" s="168"/>
+      <c r="I81" s="168"/>
+      <c r="J81" s="168"/>
       <c r="K81" s="132"/>
     </row>
     <row r="82" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="168" t="s">
+      <c r="A82" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="168"/>
+      <c r="B82" s="167"/>
       <c r="C82" s="131" t="s">
         <v>10</v>
       </c>
@@ -19580,10 +19580,10 @@
       <c r="E84" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="170" t="s">
+      <c r="F84" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="172" t="s">
+      <c r="G84" s="169" t="s">
         <v>15</v>
       </c>
       <c r="H84" s="164"/>
@@ -19603,9 +19603,9 @@
       <c r="D85" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="169"/>
-      <c r="F85" s="171"/>
-      <c r="G85" s="173"/>
+      <c r="E85" s="173"/>
+      <c r="F85" s="172"/>
+      <c r="G85" s="170"/>
       <c r="H85" s="28" t="s">
         <v>24</v>
       </c>
@@ -20081,21 +20081,42 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:J80"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="A48:F48"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="D32:J32"/>
@@ -20112,42 +20133,21 @@
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D31:J31"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:J80"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:J81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J12:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
@@ -20164,10 +20164,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K140" sqref="K140"/>
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20400,7 +20401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>3</v>
       </c>
@@ -20435,7 +20436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>4</v>
       </c>
@@ -20470,7 +20471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>5</v>
       </c>
@@ -20505,7 +20506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>6</v>
       </c>
@@ -20540,7 +20541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>7</v>
       </c>
@@ -20575,7 +20576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>8</v>
       </c>
@@ -20610,7 +20611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>9</v>
       </c>
@@ -20645,7 +20646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>10</v>
       </c>
@@ -20680,7 +20681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>11</v>
       </c>
@@ -20715,7 +20716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>12</v>
       </c>
@@ -20750,7 +20751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>13</v>
       </c>
@@ -20791,7 +20792,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="31">
         <v>43708</v>
@@ -20871,7 +20872,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>17</v>
       </c>
@@ -20906,7 +20907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>19</v>
       </c>
@@ -20941,7 +20942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>20</v>
       </c>
@@ -20976,7 +20977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>21</v>
       </c>
@@ -21011,7 +21012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>22</v>
       </c>
@@ -21046,7 +21047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>23</v>
       </c>
@@ -21081,7 +21082,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>24</v>
       </c>
@@ -21116,7 +21117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>25</v>
       </c>
@@ -21194,7 +21195,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>27</v>
       </c>
@@ -21231,7 +21232,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>28</v>
       </c>
@@ -21268,7 +21269,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>29</v>
       </c>
@@ -21309,7 +21310,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>30</v>
       </c>
@@ -21350,7 +21351,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>31</v>
       </c>
@@ -21391,7 +21392,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>32</v>
       </c>
@@ -21430,7 +21431,7 @@
       </c>
       <c r="M41" s="67"/>
     </row>
-    <row r="42" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>33</v>
       </c>
@@ -21465,7 +21466,7 @@
       </c>
       <c r="M42" s="67"/>
     </row>
-    <row r="43" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>34</v>
       </c>
@@ -21500,7 +21501,7 @@
       </c>
       <c r="M43" s="67"/>
     </row>
-    <row r="44" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>35</v>
       </c>
@@ -21535,7 +21536,7 @@
       </c>
       <c r="M44" s="67"/>
     </row>
-    <row r="45" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>36</v>
       </c>
@@ -21570,7 +21571,7 @@
       </c>
       <c r="M45" s="67"/>
     </row>
-    <row r="46" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>37</v>
       </c>
@@ -21605,7 +21606,7 @@
       </c>
       <c r="M46" s="67"/>
     </row>
-    <row r="47" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>38</v>
       </c>
@@ -21640,7 +21641,7 @@
       </c>
       <c r="M47" s="67"/>
     </row>
-    <row r="48" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>39</v>
       </c>
@@ -21675,7 +21676,7 @@
       </c>
       <c r="M48" s="67"/>
     </row>
-    <row r="49" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>40</v>
       </c>
@@ -21710,7 +21711,7 @@
       </c>
       <c r="M49" s="67"/>
     </row>
-    <row r="50" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>41</v>
       </c>
@@ -21747,7 +21748,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>42</v>
       </c>
@@ -21784,7 +21785,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>43</v>
       </c>
@@ -21821,7 +21822,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>44</v>
       </c>
@@ -21858,7 +21859,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>45</v>
       </c>
@@ -21895,7 +21896,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>46</v>
       </c>
@@ -21932,7 +21933,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>47</v>
       </c>
@@ -21969,7 +21970,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>48</v>
       </c>
@@ -22006,7 +22007,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>49</v>
       </c>
@@ -22043,7 +22044,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>50</v>
       </c>
@@ -22080,7 +22081,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>51</v>
       </c>
@@ -22117,7 +22118,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>52</v>
       </c>
@@ -22154,7 +22155,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>53</v>
       </c>
@@ -22191,7 +22192,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>54</v>
       </c>
@@ -22228,7 +22229,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>56</v>
       </c>
@@ -22265,7 +22266,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>57</v>
       </c>
@@ -22302,7 +22303,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>58</v>
       </c>
@@ -22339,7 +22340,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>59</v>
       </c>
@@ -22376,7 +22377,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>60</v>
       </c>
@@ -22417,7 +22418,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>61</v>
       </c>
@@ -22454,7 +22455,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>62</v>
       </c>
@@ -22491,7 +22492,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>63</v>
       </c>
@@ -22528,7 +22529,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>64</v>
       </c>
@@ -22565,7 +22566,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>65</v>
       </c>
@@ -22602,7 +22603,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>66</v>
       </c>
@@ -22639,7 +22640,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>67</v>
       </c>
@@ -22676,7 +22677,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>68</v>
       </c>
@@ -22713,7 +22714,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>69</v>
       </c>
@@ -22750,7 +22751,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>70</v>
       </c>
@@ -22787,7 +22788,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
         <v>71</v>
       </c>
@@ -22824,7 +22825,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30">
         <v>72</v>
       </c>
@@ -22861,7 +22862,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>73</v>
       </c>
@@ -22898,7 +22899,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30">
         <v>75</v>
       </c>
@@ -22939,7 +22940,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>76</v>
       </c>
@@ -22976,7 +22977,7 @@
       <c r="L83" s="67"/>
       <c r="M83" s="67"/>
     </row>
-    <row r="84" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30">
         <v>77</v>
       </c>
@@ -23013,7 +23014,7 @@
       <c r="L84" s="67"/>
       <c r="M84" s="67"/>
     </row>
-    <row r="85" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30">
         <v>78</v>
       </c>
@@ -23052,7 +23053,7 @@
       </c>
       <c r="M85" s="67"/>
     </row>
-    <row r="86" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>79</v>
       </c>
@@ -23087,7 +23088,7 @@
       </c>
       <c r="M86" s="67"/>
     </row>
-    <row r="87" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30">
         <v>80</v>
       </c>
@@ -23122,7 +23123,7 @@
       </c>
       <c r="M87" s="67"/>
     </row>
-    <row r="88" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30">
         <v>81</v>
       </c>
@@ -23157,7 +23158,7 @@
       </c>
       <c r="M88" s="67"/>
     </row>
-    <row r="89" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38">
         <v>82</v>
       </c>
@@ -23192,7 +23193,7 @@
       </c>
       <c r="M89" s="67"/>
     </row>
-    <row r="90" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30">
         <v>83</v>
       </c>
@@ -23227,7 +23228,7 @@
       </c>
       <c r="M90" s="67"/>
     </row>
-    <row r="91" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30">
         <v>84</v>
       </c>
@@ -23262,7 +23263,7 @@
       </c>
       <c r="M91" s="67"/>
     </row>
-    <row r="92" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
         <v>85</v>
       </c>
@@ -23297,7 +23298,7 @@
       </c>
       <c r="M92" s="67"/>
     </row>
-    <row r="93" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30">
         <v>86</v>
       </c>
@@ -23332,7 +23333,7 @@
       </c>
       <c r="M93" s="67"/>
     </row>
-    <row r="94" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30">
         <v>87</v>
       </c>
@@ -23367,7 +23368,7 @@
       </c>
       <c r="M94" s="67"/>
     </row>
-    <row r="95" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>88</v>
       </c>
@@ -23402,7 +23403,7 @@
       </c>
       <c r="M95" s="67"/>
     </row>
-    <row r="96" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30">
         <v>89</v>
       </c>
@@ -23437,7 +23438,7 @@
       </c>
       <c r="M96" s="67"/>
     </row>
-    <row r="97" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30">
         <v>90</v>
       </c>
@@ -23472,7 +23473,7 @@
       </c>
       <c r="M97" s="67"/>
     </row>
-    <row r="98" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <v>91</v>
       </c>
@@ -23507,7 +23508,7 @@
       </c>
       <c r="M98" s="67"/>
     </row>
-    <row r="99" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30">
         <v>92</v>
       </c>
@@ -23542,7 +23543,7 @@
       </c>
       <c r="M99" s="67"/>
     </row>
-    <row r="100" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30">
         <v>93</v>
       </c>
@@ -23577,7 +23578,7 @@
       </c>
       <c r="M100" s="67"/>
     </row>
-    <row r="101" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="38">
         <v>94</v>
       </c>
@@ -23616,7 +23617,7 @@
       </c>
       <c r="M101" s="67"/>
     </row>
-    <row r="102" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30">
         <v>95</v>
       </c>
@@ -23651,7 +23652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30">
         <v>96</v>
       </c>
@@ -23686,7 +23687,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
         <v>97</v>
       </c>
@@ -23721,7 +23722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30">
         <v>98</v>
       </c>
@@ -23756,7 +23757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30">
         <v>99</v>
       </c>
@@ -23791,7 +23792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>100</v>
       </c>
@@ -23826,7 +23827,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30">
         <v>101</v>
       </c>
@@ -23861,7 +23862,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30">
         <v>102</v>
       </c>
@@ -23896,7 +23897,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
         <v>103</v>
       </c>
@@ -23935,7 +23936,7 @@
       </c>
       <c r="M110" s="67"/>
     </row>
-    <row r="111" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30">
         <v>104</v>
       </c>
@@ -23974,7 +23975,7 @@
       </c>
       <c r="M111" s="67"/>
     </row>
-    <row r="112" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30">
         <v>105</v>
       </c>
@@ -24013,7 +24014,7 @@
       </c>
       <c r="M112" s="67"/>
     </row>
-    <row r="113" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
         <v>106</v>
       </c>
@@ -24048,7 +24049,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30">
         <v>107</v>
       </c>
@@ -24083,7 +24084,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30">
         <v>108</v>
       </c>
@@ -24118,7 +24119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
         <v>109</v>
       </c>
@@ -24153,7 +24154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30">
         <v>110</v>
       </c>
@@ -24188,7 +24189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30">
         <v>111</v>
       </c>
@@ -24223,7 +24224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
         <v>112</v>
       </c>
@@ -24301,7 +24302,7 @@
       </c>
       <c r="M120" s="67"/>
     </row>
-    <row r="121" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30">
         <v>114</v>
       </c>
@@ -24338,7 +24339,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
         <v>115</v>
       </c>
@@ -24375,7 +24376,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30">
         <v>116</v>
       </c>
@@ -24412,7 +24413,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30">
         <v>117</v>
       </c>
@@ -24490,7 +24491,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30">
         <v>119</v>
       </c>
@@ -24525,7 +24526,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30">
         <v>120</v>
       </c>
@@ -24560,7 +24561,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
         <v>121</v>
       </c>
@@ -24595,7 +24596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30">
         <v>122</v>
       </c>
@@ -24630,7 +24631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30">
         <v>123</v>
       </c>
@@ -24665,7 +24666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
         <v>124</v>
       </c>
@@ -24700,7 +24701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30">
         <v>125</v>
       </c>
@@ -24735,7 +24736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30">
         <v>126</v>
       </c>
@@ -24770,7 +24771,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>127</v>
       </c>
@@ -24805,7 +24806,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30">
         <v>128</v>
       </c>
@@ -24840,7 +24841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30">
         <v>129</v>
       </c>
@@ -24875,7 +24876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
         <v>130</v>
       </c>
@@ -24910,7 +24911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30">
         <v>131</v>
       </c>
@@ -24945,7 +24946,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>133</v>
       </c>
@@ -24982,7 +24983,7 @@
       <c r="L139" s="67"/>
       <c r="M139" s="67"/>
     </row>
-    <row r="140" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30">
         <v>135</v>
       </c>
@@ -25019,7 +25020,7 @@
       <c r="L140" s="67"/>
       <c r="M140" s="67"/>
     </row>
-    <row r="141" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>136</v>
       </c>
@@ -25054,7 +25055,7 @@
       </c>
       <c r="M141" s="67"/>
     </row>
-    <row r="142" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30">
         <v>137</v>
       </c>
@@ -25093,7 +25094,7 @@
       </c>
       <c r="M142" s="67"/>
     </row>
-    <row r="143" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30">
         <v>138</v>
       </c>
@@ -25128,7 +25129,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="38">
         <v>139</v>
       </c>
@@ -25163,7 +25164,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30">
         <v>140</v>
       </c>
@@ -25198,7 +25199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30">
         <v>141</v>
       </c>
@@ -25233,7 +25234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
         <v>142</v>
       </c>
@@ -25272,7 +25273,7 @@
       <c r="N147" s="59"/>
       <c r="O147" s="59"/>
     </row>
-    <row r="148" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30">
         <v>143</v>
       </c>
@@ -25311,7 +25312,7 @@
       <c r="N148" s="59"/>
       <c r="O148" s="59"/>
     </row>
-    <row r="149" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30">
         <v>144</v>
       </c>
@@ -25350,7 +25351,7 @@
       <c r="N149" s="59"/>
       <c r="O149" s="59"/>
     </row>
-    <row r="150" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
         <v>145</v>
       </c>
@@ -25389,7 +25390,7 @@
       <c r="N150" s="59"/>
       <c r="O150" s="59"/>
     </row>
-    <row r="151" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30">
         <v>146</v>
       </c>
@@ -25430,7 +25431,7 @@
       <c r="N151" s="59"/>
       <c r="O151" s="59"/>
     </row>
-    <row r="152" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30">
         <v>147</v>
       </c>
@@ -25471,7 +25472,7 @@
       <c r="N152" s="59"/>
       <c r="O152" s="59"/>
     </row>
-    <row r="153" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30">
         <v>149</v>
       </c>
@@ -25510,7 +25511,7 @@
       <c r="N153" s="59"/>
       <c r="O153" s="59"/>
     </row>
-    <row r="154" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30">
         <v>150</v>
       </c>
@@ -25549,7 +25550,7 @@
       <c r="N154" s="59"/>
       <c r="O154" s="59"/>
     </row>
-    <row r="155" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="38">
         <v>151</v>
       </c>
@@ -25588,7 +25589,7 @@
       <c r="N155" s="59"/>
       <c r="O155" s="59"/>
     </row>
-    <row r="156" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30">
         <v>152</v>
       </c>
@@ -25627,7 +25628,7 @@
       <c r="N156" s="59"/>
       <c r="O156" s="59"/>
     </row>
-    <row r="157" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30">
         <v>153</v>
       </c>
@@ -25666,7 +25667,7 @@
       <c r="N157" s="59"/>
       <c r="O157" s="59"/>
     </row>
-    <row r="158" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
         <v>154</v>
       </c>
@@ -25705,7 +25706,7 @@
       <c r="N158" s="59"/>
       <c r="O158" s="59"/>
     </row>
-    <row r="159" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30">
         <v>155</v>
       </c>
@@ -25744,7 +25745,7 @@
       <c r="N159" s="59"/>
       <c r="O159" s="59"/>
     </row>
-    <row r="160" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30">
         <v>156</v>
       </c>
@@ -25783,7 +25784,7 @@
       <c r="N160" s="59"/>
       <c r="O160" s="59"/>
     </row>
-    <row r="161" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
         <v>157</v>
       </c>
@@ -25863,7 +25864,7 @@
       <c r="N162" s="59"/>
       <c r="O162" s="59"/>
     </row>
-    <row r="163" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30">
         <v>159</v>
       </c>
@@ -25902,7 +25903,7 @@
       <c r="N163" s="59"/>
       <c r="O163" s="59"/>
     </row>
-    <row r="164" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <v>160</v>
       </c>
@@ -25941,7 +25942,7 @@
       <c r="N164" s="59"/>
       <c r="O164" s="59"/>
     </row>
-    <row r="165" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30">
         <v>161</v>
       </c>
@@ -26025,7 +26026,7 @@
       <c r="N166" s="59"/>
       <c r="O166" s="59"/>
     </row>
-    <row r="167" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
         <v>163</v>
       </c>
@@ -26064,7 +26065,7 @@
       <c r="N167" s="59"/>
       <c r="O167" s="59"/>
     </row>
-    <row r="168" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30">
         <v>164</v>
       </c>
@@ -26103,7 +26104,7 @@
       <c r="N168" s="59"/>
       <c r="O168" s="59"/>
     </row>
-    <row r="169" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30">
         <v>165</v>
       </c>
@@ -26142,7 +26143,7 @@
       <c r="N169" s="59"/>
       <c r="O169" s="59"/>
     </row>
-    <row r="170" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
         <v>166</v>
       </c>
@@ -26181,7 +26182,7 @@
       <c r="N170" s="59"/>
       <c r="O170" s="59"/>
     </row>
-    <row r="171" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30">
         <v>167</v>
       </c>
@@ -26220,7 +26221,7 @@
       <c r="N171" s="59"/>
       <c r="O171" s="59"/>
     </row>
-    <row r="172" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30">
         <v>168</v>
       </c>
@@ -26259,7 +26260,7 @@
       <c r="N172" s="59"/>
       <c r="O172" s="59"/>
     </row>
-    <row r="173" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="38">
         <v>169</v>
       </c>
@@ -26298,7 +26299,7 @@
       <c r="N173" s="59"/>
       <c r="O173" s="59"/>
     </row>
-    <row r="174" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="30">
         <v>170</v>
       </c>
@@ -26335,7 +26336,7 @@
       <c r="N174" s="59"/>
       <c r="O174" s="59"/>
     </row>
-    <row r="175" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="30">
         <v>171</v>
       </c>
@@ -26372,7 +26373,7 @@
       <c r="N175" s="59"/>
       <c r="O175" s="59"/>
     </row>
-    <row r="176" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="38">
         <v>172</v>
       </c>
@@ -26454,7 +26455,7 @@
       <c r="N177" s="59"/>
       <c r="O177" s="59"/>
     </row>
-    <row r="178" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="30">
         <v>174</v>
       </c>
@@ -26495,7 +26496,7 @@
       <c r="N178" s="59"/>
       <c r="O178" s="59"/>
     </row>
-    <row r="179" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="30">
         <v>180</v>
       </c>
@@ -26534,7 +26535,7 @@
       <c r="N179" s="59"/>
       <c r="O179" s="59"/>
     </row>
-    <row r="180" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="38">
         <v>181</v>
       </c>
@@ -26573,7 +26574,7 @@
       <c r="N180" s="59"/>
       <c r="O180" s="59"/>
     </row>
-    <row r="181" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="30">
         <v>182</v>
       </c>
@@ -26612,7 +26613,7 @@
       <c r="N181" s="59"/>
       <c r="O181" s="59"/>
     </row>
-    <row r="182" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="30">
         <v>183</v>
       </c>
@@ -26651,7 +26652,7 @@
       <c r="N182" s="59"/>
       <c r="O182" s="59"/>
     </row>
-    <row r="183" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="38">
         <v>184</v>
       </c>
@@ -26690,7 +26691,7 @@
       <c r="N183" s="59"/>
       <c r="O183" s="59"/>
     </row>
-    <row r="184" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="30">
         <v>185</v>
       </c>
@@ -26729,7 +26730,7 @@
       <c r="N184" s="59"/>
       <c r="O184" s="59"/>
     </row>
-    <row r="185" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="30">
         <v>186</v>
       </c>
@@ -26768,7 +26769,7 @@
       <c r="N185" s="59"/>
       <c r="O185" s="59"/>
     </row>
-    <row r="186" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="38">
         <v>187</v>
       </c>
@@ -26807,7 +26808,7 @@
       <c r="N186" s="59"/>
       <c r="O186" s="59"/>
     </row>
-    <row r="187" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="30">
         <v>188</v>
       </c>
@@ -26844,7 +26845,7 @@
       <c r="N187" s="59"/>
       <c r="O187" s="59"/>
     </row>
-    <row r="188" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="30">
         <v>189</v>
       </c>
@@ -26885,7 +26886,7 @@
       <c r="N188" s="59"/>
       <c r="O188" s="59"/>
     </row>
-    <row r="189" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="38">
         <v>190</v>
       </c>
@@ -26926,7 +26927,7 @@
       <c r="N189" s="59"/>
       <c r="O189" s="59"/>
     </row>
-    <row r="190" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="30">
         <v>191</v>
       </c>
@@ -26963,7 +26964,7 @@
       <c r="N190" s="59"/>
       <c r="O190" s="59"/>
     </row>
-    <row r="191" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="30">
         <v>192</v>
       </c>
@@ -27000,7 +27001,7 @@
       <c r="N191" s="59"/>
       <c r="O191" s="59"/>
     </row>
-    <row r="192" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="38">
         <v>193</v>
       </c>
@@ -27037,7 +27038,7 @@
       <c r="N192" s="59"/>
       <c r="O192" s="59"/>
     </row>
-    <row r="193" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="30">
         <v>195</v>
       </c>
@@ -27074,7 +27075,7 @@
       <c r="N193" s="59"/>
       <c r="O193" s="59"/>
     </row>
-    <row r="194" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="38">
         <v>196</v>
       </c>
@@ -27111,7 +27112,7 @@
       <c r="N194" s="59"/>
       <c r="O194" s="59"/>
     </row>
-    <row r="195" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="30">
         <v>198</v>
       </c>
@@ -27148,7 +27149,7 @@
       <c r="N195" s="59"/>
       <c r="O195" s="59"/>
     </row>
-    <row r="196" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="38">
         <v>199</v>
       </c>
@@ -27185,7 +27186,7 @@
       <c r="N196" s="59"/>
       <c r="O196" s="59"/>
     </row>
-    <row r="197" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="30">
         <v>200</v>
       </c>
@@ -27222,7 +27223,7 @@
       <c r="N197" s="59"/>
       <c r="O197" s="59"/>
     </row>
-    <row r="198" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="30">
         <v>201</v>
       </c>
@@ -27259,7 +27260,7 @@
       <c r="N198" s="59"/>
       <c r="O198" s="59"/>
     </row>
-    <row r="199" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="38">
         <v>202</v>
       </c>
@@ -27296,7 +27297,7 @@
       <c r="N199" s="59"/>
       <c r="O199" s="59"/>
     </row>
-    <row r="200" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="30">
         <v>203</v>
       </c>
@@ -27333,7 +27334,7 @@
       <c r="N200" s="59"/>
       <c r="O200" s="59"/>
     </row>
-    <row r="201" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="30">
         <v>204</v>
       </c>
@@ -27370,7 +27371,7 @@
       <c r="N201" s="59"/>
       <c r="O201" s="59"/>
     </row>
-    <row r="202" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="38">
         <v>205</v>
       </c>
@@ -27407,7 +27408,7 @@
       <c r="N202" s="59"/>
       <c r="O202" s="59"/>
     </row>
-    <row r="203" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="30">
         <v>206</v>
       </c>
@@ -27444,7 +27445,7 @@
       <c r="N203" s="59"/>
       <c r="O203" s="59"/>
     </row>
-    <row r="204" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="30">
         <v>207</v>
       </c>
@@ -27481,7 +27482,7 @@
       <c r="N204" s="59"/>
       <c r="O204" s="59"/>
     </row>
-    <row r="205" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="38">
         <v>208</v>
       </c>
@@ -27518,7 +27519,7 @@
       <c r="N205" s="59"/>
       <c r="O205" s="59"/>
     </row>
-    <row r="206" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="30">
         <v>209</v>
       </c>
@@ -27555,7 +27556,7 @@
       <c r="N206" s="59"/>
       <c r="O206" s="59"/>
     </row>
-    <row r="207" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="30">
         <v>210</v>
       </c>
@@ -27592,7 +27593,7 @@
       <c r="N207" s="59"/>
       <c r="O207" s="59"/>
     </row>
-    <row r="208" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="38">
         <v>211</v>
       </c>
@@ -27629,7 +27630,7 @@
       <c r="N208" s="59"/>
       <c r="O208" s="59"/>
     </row>
-    <row r="209" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="30">
         <v>212</v>
       </c>
@@ -27670,7 +27671,7 @@
       <c r="N209" s="59"/>
       <c r="O209" s="59"/>
     </row>
-    <row r="210" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="30">
         <v>213</v>
       </c>
@@ -27707,7 +27708,7 @@
       <c r="N210" s="59"/>
       <c r="O210" s="59"/>
     </row>
-    <row r="211" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="38">
         <v>214</v>
       </c>
@@ -27744,7 +27745,7 @@
       <c r="N211" s="59"/>
       <c r="O211" s="59"/>
     </row>
-    <row r="212" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="30">
         <v>215</v>
       </c>
@@ -27781,7 +27782,7 @@
       <c r="N212" s="59"/>
       <c r="O212" s="59"/>
     </row>
-    <row r="213" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="30">
         <v>216</v>
       </c>
@@ -27818,7 +27819,7 @@
       <c r="N213" s="59"/>
       <c r="O213" s="59"/>
     </row>
-    <row r="214" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="38">
         <v>217</v>
       </c>
@@ -27855,7 +27856,7 @@
       <c r="N214" s="59"/>
       <c r="O214" s="59"/>
     </row>
-    <row r="215" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="30">
         <v>218</v>
       </c>
@@ -27892,7 +27893,7 @@
       <c r="N215" s="59"/>
       <c r="O215" s="59"/>
     </row>
-    <row r="216" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="30">
         <v>219</v>
       </c>
@@ -27929,7 +27930,7 @@
       <c r="N216" s="59"/>
       <c r="O216" s="59"/>
     </row>
-    <row r="217" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <v>220</v>
       </c>
@@ -27970,7 +27971,7 @@
       <c r="N217" s="59"/>
       <c r="O217" s="59"/>
     </row>
-    <row r="218" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="30">
         <v>221</v>
       </c>
@@ -28011,7 +28012,7 @@
       <c r="N218" s="59"/>
       <c r="O218" s="59"/>
     </row>
-    <row r="219" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="30">
         <v>222</v>
       </c>
@@ -28052,7 +28053,7 @@
       <c r="N219" s="59"/>
       <c r="O219" s="59"/>
     </row>
-    <row r="220" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="30">
         <v>224</v>
       </c>
@@ -28091,7 +28092,7 @@
       <c r="N220" s="59"/>
       <c r="O220" s="59"/>
     </row>
-    <row r="221" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="30">
         <v>225</v>
       </c>
@@ -28128,7 +28129,7 @@
       <c r="N221" s="59"/>
       <c r="O221" s="59"/>
     </row>
-    <row r="222" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="38">
         <v>226</v>
       </c>
@@ -28167,7 +28168,7 @@
       <c r="N222" s="59"/>
       <c r="O222" s="59"/>
     </row>
-    <row r="223" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="30">
         <v>227</v>
       </c>
@@ -28206,7 +28207,7 @@
       <c r="N223" s="59"/>
       <c r="O223" s="59"/>
     </row>
-    <row r="224" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="30">
         <v>228</v>
       </c>
@@ -28245,7 +28246,7 @@
       <c r="N224" s="59"/>
       <c r="O224" s="59"/>
     </row>
-    <row r="225" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="38">
         <v>229</v>
       </c>
@@ -28284,7 +28285,7 @@
       <c r="N225" s="59"/>
       <c r="O225" s="59"/>
     </row>
-    <row r="226" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="30">
         <v>230</v>
       </c>
@@ -28323,7 +28324,7 @@
       <c r="N226" s="59"/>
       <c r="O226" s="59"/>
     </row>
-    <row r="227" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="30">
         <v>231</v>
       </c>
@@ -28362,7 +28363,7 @@
       <c r="N227" s="59"/>
       <c r="O227" s="59"/>
     </row>
-    <row r="228" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="30">
         <v>233</v>
       </c>
@@ -28401,7 +28402,7 @@
       <c r="N228" s="59"/>
       <c r="O228" s="59"/>
     </row>
-    <row r="229" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="30">
         <v>234</v>
       </c>
@@ -28440,7 +28441,7 @@
       <c r="N229" s="59"/>
       <c r="O229" s="59"/>
     </row>
-    <row r="230" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="38">
         <v>235</v>
       </c>
@@ -28479,7 +28480,7 @@
       <c r="N230" s="59"/>
       <c r="O230" s="59"/>
     </row>
-    <row r="231" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="30">
         <v>236</v>
       </c>
@@ -28518,7 +28519,7 @@
       <c r="N231" s="59"/>
       <c r="O231" s="59"/>
     </row>
-    <row r="232" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="30">
         <v>237</v>
       </c>
@@ -28557,7 +28558,7 @@
       <c r="N232" s="59"/>
       <c r="O232" s="59"/>
     </row>
-    <row r="233" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="38">
         <v>238</v>
       </c>
@@ -28596,7 +28597,7 @@
       <c r="N233" s="59"/>
       <c r="O233" s="59"/>
     </row>
-    <row r="234" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="30">
         <v>239</v>
       </c>
@@ -28635,7 +28636,7 @@
       <c r="N234" s="59"/>
       <c r="O234" s="59"/>
     </row>
-    <row r="235" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="30">
         <v>240</v>
       </c>
@@ -28674,7 +28675,7 @@
       <c r="N235" s="59"/>
       <c r="O235" s="59"/>
     </row>
-    <row r="236" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="38">
         <v>241</v>
       </c>
@@ -28713,7 +28714,7 @@
       <c r="N236" s="59"/>
       <c r="O236" s="59"/>
     </row>
-    <row r="237" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="38">
         <v>250</v>
       </c>
@@ -28752,7 +28753,7 @@
       <c r="N237" s="59"/>
       <c r="O237" s="59"/>
     </row>
-    <row r="238" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="30">
         <v>252</v>
       </c>
@@ -28791,7 +28792,7 @@
       <c r="N238" s="59"/>
       <c r="O238" s="59"/>
     </row>
-    <row r="239" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="38">
         <v>253</v>
       </c>
@@ -28830,7 +28831,7 @@
       <c r="N239" s="59"/>
       <c r="O239" s="59"/>
     </row>
-    <row r="240" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="30">
         <v>254</v>
       </c>
@@ -28869,7 +28870,7 @@
       <c r="N240" s="59"/>
       <c r="O240" s="59"/>
     </row>
-    <row r="241" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="30">
         <v>255</v>
       </c>
@@ -28908,7 +28909,7 @@
       <c r="N241" s="59"/>
       <c r="O241" s="59"/>
     </row>
-    <row r="242" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="38">
         <v>256</v>
       </c>
@@ -28947,7 +28948,7 @@
       <c r="N242" s="59"/>
       <c r="O242" s="59"/>
     </row>
-    <row r="243" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="30">
         <v>257</v>
       </c>
@@ -28986,7 +28987,7 @@
       <c r="N243" s="59"/>
       <c r="O243" s="59"/>
     </row>
-    <row r="244" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="30">
         <v>258</v>
       </c>
@@ -29025,7 +29026,7 @@
       <c r="N244" s="59"/>
       <c r="O244" s="59"/>
     </row>
-    <row r="245" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="38"/>
       <c r="B245" s="31">
         <v>43799</v>
@@ -29062,7 +29063,7 @@
       <c r="N245" s="59"/>
       <c r="O245" s="59"/>
     </row>
-    <row r="246" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="38"/>
       <c r="B246" s="31">
         <v>43804</v>
@@ -29099,7 +29100,7 @@
       <c r="N246" s="59"/>
       <c r="O246" s="59"/>
     </row>
-    <row r="247" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="38">
         <v>259</v>
       </c>
@@ -29142,7 +29143,7 @@
       <c r="N247" s="59"/>
       <c r="O247" s="59"/>
     </row>
-    <row r="248" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="30">
         <v>260</v>
       </c>
@@ -29181,7 +29182,7 @@
       <c r="N248" s="59"/>
       <c r="O248" s="59"/>
     </row>
-    <row r="249" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="30">
         <v>261</v>
       </c>
@@ -29220,7 +29221,7 @@
       <c r="N249" s="59"/>
       <c r="O249" s="59"/>
     </row>
-    <row r="250" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="38">
         <v>262</v>
       </c>
@@ -29259,7 +29260,7 @@
       <c r="N250" s="59"/>
       <c r="O250" s="59"/>
     </row>
-    <row r="251" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="30">
         <v>263</v>
       </c>
@@ -29298,7 +29299,7 @@
       <c r="N251" s="59"/>
       <c r="O251" s="59"/>
     </row>
-    <row r="252" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="30">
         <v>264</v>
       </c>
@@ -29337,7 +29338,7 @@
       <c r="N252" s="59"/>
       <c r="O252" s="59"/>
     </row>
-    <row r="253" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="38">
         <v>265</v>
       </c>
@@ -29376,7 +29377,7 @@
       <c r="N253" s="59"/>
       <c r="O253" s="59"/>
     </row>
-    <row r="254" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="30">
         <v>266</v>
       </c>
@@ -29415,7 +29416,7 @@
       <c r="N254" s="59"/>
       <c r="O254" s="59"/>
     </row>
-    <row r="255" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="30">
         <v>267</v>
       </c>
@@ -29454,7 +29455,7 @@
       <c r="N255" s="59"/>
       <c r="O255" s="59"/>
     </row>
-    <row r="256" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="38">
         <v>268</v>
       </c>
@@ -29491,7 +29492,7 @@
       <c r="N256" s="59"/>
       <c r="O256" s="59"/>
     </row>
-    <row r="257" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="30">
         <v>269</v>
       </c>
@@ -29528,7 +29529,7 @@
       <c r="N257" s="59"/>
       <c r="O257" s="59"/>
     </row>
-    <row r="258" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="30">
         <v>270</v>
       </c>
@@ -29565,7 +29566,7 @@
       <c r="N258" s="59"/>
       <c r="O258" s="59"/>
     </row>
-    <row r="259" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="38">
         <v>271</v>
       </c>
@@ -29602,7 +29603,7 @@
       <c r="N259" s="59"/>
       <c r="O259" s="59"/>
     </row>
-    <row r="260" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="30">
         <v>272</v>
       </c>
@@ -29639,7 +29640,7 @@
       <c r="N260" s="59"/>
       <c r="O260" s="59"/>
     </row>
-    <row r="261" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="30">
         <v>273</v>
       </c>
@@ -29717,7 +29718,7 @@
       <c r="N262" s="59"/>
       <c r="O262" s="59"/>
     </row>
-    <row r="263" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="30">
         <v>281</v>
       </c>
@@ -29756,7 +29757,7 @@
       <c r="N263" s="59"/>
       <c r="O263" s="59"/>
     </row>
-    <row r="264" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="30">
         <v>282</v>
       </c>
@@ -29795,7 +29796,7 @@
       <c r="N264" s="59"/>
       <c r="O264" s="59"/>
     </row>
-    <row r="265" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="38">
         <v>283</v>
       </c>
@@ -29834,7 +29835,7 @@
       <c r="N265" s="59"/>
       <c r="O265" s="59"/>
     </row>
-    <row r="266" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="30">
         <v>284</v>
       </c>
@@ -29873,7 +29874,7 @@
       <c r="N266" s="59"/>
       <c r="O266" s="59"/>
     </row>
-    <row r="267" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="30">
         <v>285</v>
       </c>
@@ -29912,7 +29913,7 @@
       <c r="N267" s="59"/>
       <c r="O267" s="59"/>
     </row>
-    <row r="268" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="38">
         <v>286</v>
       </c>
@@ -29951,7 +29952,7 @@
       <c r="N268" s="59"/>
       <c r="O268" s="59"/>
     </row>
-    <row r="269" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="30">
         <v>287</v>
       </c>
@@ -29990,7 +29991,7 @@
       <c r="N269" s="59"/>
       <c r="O269" s="59"/>
     </row>
-    <row r="270" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="30">
         <v>288</v>
       </c>
@@ -30029,7 +30030,7 @@
       <c r="N270" s="59"/>
       <c r="O270" s="59"/>
     </row>
-    <row r="271" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="38">
         <v>289</v>
       </c>
@@ -30068,7 +30069,7 @@
       <c r="N271" s="59"/>
       <c r="O271" s="59"/>
     </row>
-    <row r="272" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="30">
         <v>290</v>
       </c>
@@ -30107,7 +30108,7 @@
       <c r="N272" s="59"/>
       <c r="O272" s="59"/>
     </row>
-    <row r="273" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="30">
         <v>291</v>
       </c>
@@ -30146,7 +30147,7 @@
       <c r="N273" s="59"/>
       <c r="O273" s="59"/>
     </row>
-    <row r="274" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="38">
         <v>292</v>
       </c>
@@ -30185,7 +30186,7 @@
       <c r="N274" s="59"/>
       <c r="O274" s="59"/>
     </row>
-    <row r="275" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="30">
         <v>293</v>
       </c>
@@ -30224,7 +30225,7 @@
       <c r="N275" s="59"/>
       <c r="O275" s="59"/>
     </row>
-    <row r="276" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="30">
         <v>294</v>
       </c>
@@ -30263,7 +30264,7 @@
       <c r="N276" s="59"/>
       <c r="O276" s="59"/>
     </row>
-    <row r="277" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="38">
         <v>295</v>
       </c>
@@ -30302,7 +30303,7 @@
       <c r="N277" s="59"/>
       <c r="O277" s="59"/>
     </row>
-    <row r="278" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="30">
         <v>296</v>
       </c>
@@ -30345,7 +30346,7 @@
       <c r="N278" s="59"/>
       <c r="O278" s="59"/>
     </row>
-    <row r="279" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="30">
         <v>297</v>
       </c>
@@ -30388,7 +30389,7 @@
       <c r="N279" s="59"/>
       <c r="O279" s="59"/>
     </row>
-    <row r="280" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="38">
         <v>298</v>
       </c>
@@ -30431,7 +30432,7 @@
       <c r="N280" s="59"/>
       <c r="O280" s="59"/>
     </row>
-    <row r="281" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="30">
         <v>299</v>
       </c>
@@ -30474,7 +30475,7 @@
       <c r="N281" s="59"/>
       <c r="O281" s="59"/>
     </row>
-    <row r="282" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="30">
         <v>300</v>
       </c>
@@ -30517,7 +30518,7 @@
       <c r="N282" s="59"/>
       <c r="O282" s="59"/>
     </row>
-    <row r="283" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="30">
         <v>303</v>
       </c>
@@ -30599,7 +30600,7 @@
       <c r="N284" s="59"/>
       <c r="O284" s="59"/>
     </row>
-    <row r="285" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="30">
         <v>305</v>
       </c>
@@ -30636,7 +30637,7 @@
       <c r="N285" s="59"/>
       <c r="O285" s="59"/>
     </row>
-    <row r="286" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="30">
         <v>306</v>
       </c>
@@ -30673,7 +30674,7 @@
       <c r="N286" s="59"/>
       <c r="O286" s="59"/>
     </row>
-    <row r="287" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="30">
         <v>308</v>
       </c>
@@ -30710,7 +30711,7 @@
       <c r="N287" s="59"/>
       <c r="O287" s="59"/>
     </row>
-    <row r="288" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="30">
         <v>309</v>
       </c>
@@ -30747,7 +30748,7 @@
       <c r="N288" s="59"/>
       <c r="O288" s="59"/>
     </row>
-    <row r="289" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="38">
         <v>310</v>
       </c>
@@ -30784,7 +30785,7 @@
       <c r="N289" s="59"/>
       <c r="O289" s="59"/>
     </row>
-    <row r="290" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="30">
         <v>311</v>
       </c>
@@ -30821,7 +30822,7 @@
       <c r="N290" s="59"/>
       <c r="O290" s="59"/>
     </row>
-    <row r="291" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="30">
         <v>312</v>
       </c>
@@ -30858,7 +30859,7 @@
       <c r="N291" s="59"/>
       <c r="O291" s="59"/>
     </row>
-    <row r="292" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="38">
         <v>313</v>
       </c>
@@ -30938,7 +30939,7 @@
       <c r="N293" s="59"/>
       <c r="O293" s="59"/>
     </row>
-    <row r="294" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="30">
         <v>315</v>
       </c>
@@ -30977,7 +30978,7 @@
       <c r="N294" s="59"/>
       <c r="O294" s="59"/>
     </row>
-    <row r="295" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="38">
         <v>316</v>
       </c>
@@ -31016,7 +31017,7 @@
       <c r="N295" s="59"/>
       <c r="O295" s="59"/>
     </row>
-    <row r="296" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="30">
         <v>317</v>
       </c>
@@ -31055,7 +31056,7 @@
       <c r="N296" s="59"/>
       <c r="O296" s="59"/>
     </row>
-    <row r="297" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="30">
         <v>318</v>
       </c>
@@ -31094,7 +31095,7 @@
       <c r="N297" s="59"/>
       <c r="O297" s="59"/>
     </row>
-    <row r="298" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="38">
         <v>319</v>
       </c>
@@ -31133,7 +31134,7 @@
       <c r="N298" s="59"/>
       <c r="O298" s="59"/>
     </row>
-    <row r="299" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="30">
         <v>320</v>
       </c>
@@ -31172,7 +31173,7 @@
       <c r="N299" s="59"/>
       <c r="O299" s="59"/>
     </row>
-    <row r="300" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="30">
         <v>321</v>
       </c>
@@ -31211,7 +31212,7 @@
       <c r="N300" s="59"/>
       <c r="O300" s="59"/>
     </row>
-    <row r="301" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="38">
         <v>322</v>
       </c>
@@ -31250,7 +31251,7 @@
       <c r="N301" s="59"/>
       <c r="O301" s="59"/>
     </row>
-    <row r="302" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="30">
         <v>323</v>
       </c>
@@ -31289,7 +31290,7 @@
       <c r="N302" s="59"/>
       <c r="O302" s="59"/>
     </row>
-    <row r="303" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="30">
         <v>324</v>
       </c>
@@ -31328,7 +31329,7 @@
       <c r="N303" s="59"/>
       <c r="O303" s="59"/>
     </row>
-    <row r="304" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="38">
         <v>325</v>
       </c>
@@ -31410,7 +31411,7 @@
       <c r="N305" s="59"/>
       <c r="O305" s="59"/>
     </row>
-    <row r="306" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="30">
         <v>327</v>
       </c>
@@ -31492,7 +31493,7 @@
       <c r="N307" s="59"/>
       <c r="O307" s="59"/>
     </row>
-    <row r="308" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="30">
         <v>344</v>
       </c>
@@ -31531,7 +31532,7 @@
       <c r="N308" s="59"/>
       <c r="O308" s="59"/>
     </row>
-    <row r="309" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="30">
         <v>345</v>
       </c>
@@ -31570,7 +31571,7 @@
       <c r="N309" s="59"/>
       <c r="O309" s="59"/>
     </row>
-    <row r="310" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="38">
         <v>346</v>
       </c>
@@ -31609,7 +31610,7 @@
       <c r="N310" s="59"/>
       <c r="O310" s="59"/>
     </row>
-    <row r="311" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="30">
         <v>347</v>
       </c>
@@ -31648,7 +31649,7 @@
       <c r="N311" s="59"/>
       <c r="O311" s="59"/>
     </row>
-    <row r="312" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="30">
         <v>348</v>
       </c>
@@ -31687,7 +31688,7 @@
       <c r="N312" s="59"/>
       <c r="O312" s="59"/>
     </row>
-    <row r="313" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="38">
         <v>349</v>
       </c>
@@ -31726,7 +31727,7 @@
       <c r="N313" s="59"/>
       <c r="O313" s="59"/>
     </row>
-    <row r="314" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="30">
         <v>350</v>
       </c>
@@ -31765,7 +31766,7 @@
       <c r="N314" s="59"/>
       <c r="O314" s="59"/>
     </row>
-    <row r="315" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="30">
         <v>351</v>
       </c>
@@ -31804,7 +31805,7 @@
       <c r="N315" s="59"/>
       <c r="O315" s="59"/>
     </row>
-    <row r="316" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="38">
         <v>352</v>
       </c>
@@ -31869,6 +31870,13 @@
       <c r="O317" s="59"/>
     </row>
   </sheetData>
+  <autoFilter ref="B13:K317">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="O/S"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -32934,7 +32942,7 @@
       </c>
       <c r="I12" s="164"/>
       <c r="J12" s="164"/>
-      <c r="K12" s="172"/>
+      <c r="K12" s="169"/>
       <c r="L12" s="88" t="s">
         <v>17</v>
       </c>
@@ -37323,16 +37331,16 @@
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
     </row>
     <row r="8" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="166" t="s">
@@ -37342,22 +37350,22 @@
       <c r="C8" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="168" t="s">
         <v>377</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="168"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="131" t="s">
         <v>10</v>
       </c>
@@ -37407,7 +37415,7 @@
       </c>
       <c r="H11" s="164"/>
       <c r="I11" s="164"/>
-      <c r="J11" s="172"/>
+      <c r="J11" s="169"/>
       <c r="K11" s="165" t="s">
         <v>17</v>
       </c>
@@ -37977,16 +37985,16 @@
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="167" t="s">
+      <c r="D30" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="167"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="168"/>
     </row>
     <row r="31" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="166" t="s">
@@ -37996,22 +38004,22 @@
       <c r="C31" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="167" t="s">
+      <c r="D31" s="168" t="s">
         <v>377</v>
       </c>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="167"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="168"/>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="168" t="s">
+      <c r="A32" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="168"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="131" t="s">
         <v>10</v>
       </c>
@@ -38061,7 +38069,7 @@
       </c>
       <c r="H34" s="164"/>
       <c r="I34" s="164"/>
-      <c r="J34" s="172"/>
+      <c r="J34" s="169"/>
       <c r="K34" s="165" t="s">
         <v>17</v>
       </c>
@@ -38571,6 +38579,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:K30"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:K4"/>
@@ -38586,24 +38612,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:K35"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.31496062992125984" top="0.47244094488188981" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
